--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F\programing\auto-tools-for-researcher\excelltomysqlgithub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0C5248-24E9-4821-90AD-DCF37ECB054E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09743B5-7400-416A-993E-8832771F91BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21075" yWindow="975" windowWidth="27765" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="15" windowWidth="21105" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,81 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Number</t>
   </si>
   <si>
+    <t>G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewYork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wuhan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beijing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanghai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>John</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotwa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Events</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>City</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewYork</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wuhan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beijing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shanghai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>John</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotwa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Events</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>events1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>events2</t>
-  </si>
-  <si>
-    <t>events3</t>
-  </si>
-  <si>
-    <t>events4</t>
-  </si>
-  <si>
-    <t>events5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -653,7 +645,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,19 +669,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -703,19 +695,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -723,28 +712,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -752,19 +729,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -772,25 +746,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
